--- a/medicine/Enfance/Philippe_Dumas_(auteur)/Philippe_Dumas_(auteur).xlsx
+++ b/medicine/Enfance/Philippe_Dumas_(auteur)/Philippe_Dumas_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Dumas, né le 26 septembre 1940 à Cannes[1], est un auteur pour la jeunesse et illustrateur français, également peintre et décorateur de théâtre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Dumas, né le 26 septembre 1940 à Cannes, est un auteur pour la jeunesse et illustrateur français, également peintre et décorateur de théâtre.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Dumas étudie à l'École des beaux-arts de Paris[1] avant de travailler comme auteur et illustrateur pour la jeunesse dans les années 1970.
-Il écrit et illustre plusieurs albums pour enfants. Son dessin se caractérise par « son crayonnage désinvolte et expressif rehaussé de couleurs douces [qui] excelle à rendre les paysages, les intérieurs et, chose plus rare, les atmosphères affectives »[2].
-Il mène une carrière prolifique d'illustrateur pour la jeunesse, mettant en images de nombreux albums ou livres d'auteurs classiques comme Charles Perrault, Victor Hugo, Guy de Maupassant, Anton Tchékhov ou Les Contes du chat perché de Marcel Aymé[3], et d'auteurs contemporains comme Gérard Pussey, Chris Donner, Anne Trotereau, Marie-Aude Murail ou Marie Desplechin[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Dumas étudie à l'École des beaux-arts de Paris avant de travailler comme auteur et illustrateur pour la jeunesse dans les années 1970.
+Il écrit et illustre plusieurs albums pour enfants. Son dessin se caractérise par « son crayonnage désinvolte et expressif rehaussé de couleurs douces [qui] excelle à rendre les paysages, les intérieurs et, chose plus rare, les atmosphères affectives ».
+Il mène une carrière prolifique d'illustrateur pour la jeunesse, mettant en images de nombreux albums ou livres d'auteurs classiques comme Charles Perrault, Victor Hugo, Guy de Maupassant, Anton Tchékhov ou Les Contes du chat perché de Marcel Aymé, et d'auteurs contemporains comme Gérard Pussey, Chris Donner, Anne Trotereau, Marie-Aude Murail ou Marie Desplechin.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications et illustrations[5]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire d'Édouard, Flammarion, 1976.
 Laura, le terre-neuve d'Alice, Albums l'École des loisirs, 1976.
@@ -603,12 +619,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Bernard Versele 1979 pour La Petite Géante
-(international) « Honour List » 1984[6] de l' IBBY, catégorie Auteur, pour Ce changement-là, qu'il a également illustré
+(international) « Honour List » 1984 de l' IBBY, catégorie Auteur, pour Ce changement-là, qu'il a également illustré
 Grand prix de littérature enfantine décerné par la ville de Paris pour l’ensemble de son œuvre en 1987.
-Prix Jacques Asklund[7] 1987, pour Victor Hugo s'est égaré
+Prix Jacques Asklund 1987, pour Victor Hugo s'est égaré
 Prix Biguet 1988 pour ses albums
 Prix Sorcières 1989 pour Enfantines de Marie-Claire Bruley et Lya Tourn, qu'il a illustré</t>
         </is>
